--- a/students.xlsx
+++ b/students.xlsx
@@ -1,45 +1,644 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects NodeJs\Tadaima\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="203">
+  <si>
+    <t>Grade1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Grade2</t>
+  </si>
+  <si>
+    <t>Grade3</t>
+  </si>
+  <si>
+    <t>Grade4</t>
+  </si>
+  <si>
+    <t>Grade5</t>
+  </si>
+  <si>
+    <t>Grade6</t>
+  </si>
+  <si>
+    <t>علاء محمد صفوت حسان</t>
+  </si>
+  <si>
+    <t>X12A9B7C</t>
+  </si>
+  <si>
+    <t>يوسف رضا حسن</t>
+  </si>
+  <si>
+    <t>Q91L7P6M</t>
+  </si>
+  <si>
+    <t>سامي هاني سامي</t>
+  </si>
+  <si>
+    <t>R32J4K8N</t>
+  </si>
+  <si>
+    <t>إيهاب راضي موسي</t>
+  </si>
+  <si>
+    <t>A74P3T1L</t>
+  </si>
+  <si>
+    <t>بيشوي ناصر رمسيس</t>
+  </si>
+  <si>
+    <t>F82K5D4H</t>
+  </si>
+  <si>
+    <t>خيري عاطف خيري</t>
+  </si>
+  <si>
+    <t>Z63N1X9Y</t>
+  </si>
+  <si>
+    <t>محمد ابراهيم سلطان</t>
+  </si>
+  <si>
+    <t>G56T9A7B</t>
+  </si>
+  <si>
+    <t>ساره محمد جمعه</t>
+  </si>
+  <si>
+    <t>B41C8L3D</t>
+  </si>
+  <si>
+    <t>احمد عيد سيد</t>
+  </si>
+  <si>
+    <t>T73P9M6K</t>
+  </si>
+  <si>
+    <t>خالد رجب عثمان</t>
+  </si>
+  <si>
+    <t>V92R4N5J</t>
+  </si>
+  <si>
+    <t>محمد ايمن على</t>
+  </si>
+  <si>
+    <t>K81Q6H3L</t>
+  </si>
+  <si>
+    <t>حبيبه علي صادق</t>
+  </si>
+  <si>
+    <t>M47N2P8Q</t>
+  </si>
+  <si>
+    <t>نجوى مصطفى احمد محمود</t>
+  </si>
+  <si>
+    <t>S25L8R1F</t>
+  </si>
+  <si>
+    <t>عبدالله محمود فتحى</t>
+  </si>
+  <si>
+    <t>H19D7K3C</t>
+  </si>
+  <si>
+    <t>محمد مصطفى عبدالعاطى محمد</t>
+  </si>
+  <si>
+    <t>L34T8X6Q</t>
+  </si>
+  <si>
+    <t>محمد مختار محمد</t>
+  </si>
+  <si>
+    <t>P98F1J7R</t>
+  </si>
+  <si>
+    <t>هشام ايمن عطيه</t>
+  </si>
+  <si>
+    <t>C74M9B2P</t>
+  </si>
+  <si>
+    <t>محمد عمرو محمد</t>
+  </si>
+  <si>
+    <t>N82Q5L6D</t>
+  </si>
+  <si>
+    <t>محمد أيمن محمد عبدالمنعم محمد</t>
+  </si>
+  <si>
+    <t>D23H4P7T</t>
+  </si>
+  <si>
+    <t>احمد رافت عطيه</t>
+  </si>
+  <si>
+    <t>Q16K8N3M</t>
+  </si>
+  <si>
+    <t>عمر احمد صلاح أحمد</t>
+  </si>
+  <si>
+    <t>X91R7B5A</t>
+  </si>
+  <si>
+    <t>يوسف ابراهيم</t>
+  </si>
+  <si>
+    <t>G73L2T6N</t>
+  </si>
+  <si>
+    <t>البراء أشرف شوقي</t>
+  </si>
+  <si>
+    <t>F84P9M1D</t>
+  </si>
+  <si>
+    <t>صهيب هشام عبد المنعم عبدالسلام</t>
+  </si>
+  <si>
+    <t>R67T3H8P</t>
+  </si>
+  <si>
+    <t>حبيبه حسام الجندي</t>
+  </si>
+  <si>
+    <t>J25L9D4Q</t>
+  </si>
+  <si>
+    <t>فارس احمد محمد</t>
+  </si>
+  <si>
+    <t>K41N8P6L</t>
+  </si>
+  <si>
+    <t>كريم علي رجب</t>
+  </si>
+  <si>
+    <t>H38B7R2T</t>
+  </si>
+  <si>
+    <t>محروص داود محروص</t>
+  </si>
+  <si>
+    <t>M65K9C1N</t>
+  </si>
+  <si>
+    <t>روان سلامه فرج</t>
+  </si>
+  <si>
+    <t>N23L7T5P</t>
+  </si>
+  <si>
+    <t>سيف ياسر سمير</t>
+  </si>
+  <si>
+    <t>V49F8P3L</t>
+  </si>
+  <si>
+    <t>رباب احمد محمد</t>
+  </si>
+  <si>
+    <t>Z81Q6R7D</t>
+  </si>
+  <si>
+    <t>رحاب صابر عبدالرحمن</t>
+  </si>
+  <si>
+    <t>P75M2T9K</t>
+  </si>
+  <si>
+    <t>محمود محمد عبدالله</t>
+  </si>
+  <si>
+    <t>C32L8B7F</t>
+  </si>
+  <si>
+    <t>احمد محسن محمود</t>
+  </si>
+  <si>
+    <t>X47R9M2T</t>
+  </si>
+  <si>
+    <t>امنيه سند مغيربى</t>
+  </si>
+  <si>
+    <t>Q92H5K6B</t>
+  </si>
+  <si>
+    <t>حسناء حاتم عبد الحليم مصطفى</t>
+  </si>
+  <si>
+    <t>L16F8N3C</t>
+  </si>
+  <si>
+    <t>احمد عصمت قاسم</t>
+  </si>
+  <si>
+    <t>T81M9P4K</t>
+  </si>
+  <si>
+    <t>عبد الرحمن ياسر رفعت</t>
+  </si>
+  <si>
+    <t>D27L6B5P</t>
+  </si>
+  <si>
+    <t>شهد صلاح إبراهيم</t>
+  </si>
+  <si>
+    <t>P43K7R1L</t>
+  </si>
+  <si>
+    <t>أدهم محمود سعد</t>
+  </si>
+  <si>
+    <t>N98T5D2Q</t>
+  </si>
+  <si>
+    <t>محمود مختار محمود</t>
+  </si>
+  <si>
+    <t>K24H8P7M</t>
+  </si>
+  <si>
+    <t>خالد تامر عبد الفتاح ذكي</t>
+  </si>
+  <si>
+    <t>M61B9L4Q</t>
+  </si>
+  <si>
+    <t>محمد تامر السيد</t>
+  </si>
+  <si>
+    <t>F73L8D1T</t>
+  </si>
+  <si>
+    <t>زياد وائل حسن راشد</t>
+  </si>
+  <si>
+    <t>R28N5K7B</t>
+  </si>
+  <si>
+    <t>هاجر رمضان شوقي</t>
+  </si>
+  <si>
+    <t>G94P2M6L</t>
+  </si>
+  <si>
+    <t>مصطفى محمد رمضان</t>
+  </si>
+  <si>
+    <t>X52T7H9N</t>
+  </si>
+  <si>
+    <t>عبد الرحمن احمد الشحات</t>
+  </si>
+  <si>
+    <t>Q61K9M3F</t>
+  </si>
+  <si>
+    <t>أحمد عنايت عبدالحميد</t>
+  </si>
+  <si>
+    <t>L85P4R2C</t>
+  </si>
+  <si>
+    <t>لمياء علاء الدين</t>
+  </si>
+  <si>
+    <t>T92M6B7P</t>
+  </si>
+  <si>
+    <t>يوسف عمر سعد</t>
+  </si>
+  <si>
+    <t>H73N8K4D</t>
+  </si>
+  <si>
+    <t>حازم نادى الازهرى</t>
+  </si>
+  <si>
+    <t>J54P7R1L</t>
+  </si>
+  <si>
+    <t>وعد عمرو محمد طه</t>
+  </si>
+  <si>
+    <t>C86M9T3F</t>
+  </si>
+  <si>
+    <t>محمد هاني علي</t>
+  </si>
+  <si>
+    <t>P39K2B8N</t>
+  </si>
+  <si>
+    <t>محمد احمد تحسين</t>
+  </si>
+  <si>
+    <t>N61R4L7D</t>
+  </si>
+  <si>
+    <t>سهيله محمود ابو النضر</t>
+  </si>
+  <si>
+    <t>V82T5P3K</t>
+  </si>
+  <si>
+    <t>أحمد الصافي أحمد</t>
+  </si>
+  <si>
+    <t>L24F8M7N</t>
+  </si>
+  <si>
+    <t>ياسمين سيد علي</t>
+  </si>
+  <si>
+    <t>X49B7K2T</t>
+  </si>
+  <si>
+    <t>احمد هانى شوقى</t>
+  </si>
+  <si>
+    <t>Q31R8P6L</t>
+  </si>
+  <si>
+    <t>جنى وليد زيدان</t>
+  </si>
+  <si>
+    <t>G74N9H2F</t>
+  </si>
+  <si>
+    <t>آية عصام ابوزيد</t>
+  </si>
+  <si>
+    <t>D58K7L3P</t>
+  </si>
+  <si>
+    <t>زينب أحمد عبدالله</t>
+  </si>
+  <si>
+    <t>T63P9B4L</t>
+  </si>
+  <si>
+    <t>أحمد عصام السيد</t>
+  </si>
+  <si>
+    <t>P17M6R5N</t>
+  </si>
+  <si>
+    <t>علاء الدين اسعد شرابي</t>
+  </si>
+  <si>
+    <t>F42L8K9T</t>
+  </si>
+  <si>
+    <t>محمد سمير حمدي</t>
+  </si>
+  <si>
+    <t>H98N7P1L</t>
+  </si>
+  <si>
+    <t>حسام انور عطيه</t>
+  </si>
+  <si>
+    <t>R61M4T2Q</t>
+  </si>
+  <si>
+    <t>شهد محمد الزنقلى</t>
+  </si>
+  <si>
+    <t>L83X1N7P</t>
+  </si>
+  <si>
+    <t>Q45K2R9T</t>
+  </si>
+  <si>
+    <t>محمد على خضراوى</t>
+  </si>
+  <si>
+    <t>M92T6H3B</t>
+  </si>
+  <si>
+    <t>مانويل وصفى جورجى</t>
+  </si>
+  <si>
+    <t>F74P8C5L</t>
+  </si>
+  <si>
+    <t>حسن ممدوح حسن</t>
+  </si>
+  <si>
+    <t>D61L7J2N</t>
+  </si>
+  <si>
+    <t>شهد معتصم قرني</t>
+  </si>
+  <si>
+    <t>X94B6T8P</t>
+  </si>
+  <si>
+    <t>انس هاني السبكي</t>
+  </si>
+  <si>
+    <t>K35H9M2F</t>
+  </si>
+  <si>
+    <t>حسن علي حسن</t>
+  </si>
+  <si>
+    <t>N72P4Q8R</t>
+  </si>
+  <si>
+    <t>Menna tallah mohamed mohamed</t>
+  </si>
+  <si>
+    <t>T83F1L7K</t>
+  </si>
+  <si>
+    <t>محمود حسن محمد</t>
+  </si>
+  <si>
+    <t>R96B5N3M</t>
+  </si>
+  <si>
+    <t>حسن صالح حسن</t>
+  </si>
+  <si>
+    <t>P41X7C9L</t>
+  </si>
+  <si>
+    <t>مروه سلامه عاشور</t>
+  </si>
+  <si>
+    <t>Z28K6T3P</t>
+  </si>
+  <si>
+    <t>شهد احمد عبدالوهاب</t>
+  </si>
+  <si>
+    <t>L84X1N7P</t>
+  </si>
+  <si>
+    <t>شهد حمدي محمد</t>
+  </si>
+  <si>
+    <t>Q46K2R9T</t>
+  </si>
+  <si>
+    <t>أحمد محمد عبد المحسن</t>
+  </si>
+  <si>
+    <t>M92T8H3B</t>
+  </si>
+  <si>
+    <t>طارق محمد عبد الحكم</t>
+  </si>
+  <si>
+    <t>F74P9C5L</t>
+  </si>
+  <si>
+    <t>هويدا معوض ابراهيم</t>
+  </si>
+  <si>
+    <t>D61R7J2N</t>
+  </si>
+  <si>
+    <t>نورهان عاطف مصطفي</t>
+  </si>
+  <si>
+    <t>D61R8J2N</t>
+  </si>
+  <si>
+    <t>مانويل وصفى</t>
+  </si>
+  <si>
+    <t>B57L3N9Q</t>
+  </si>
+  <si>
+    <t>B57Y4N9Q</t>
+  </si>
+  <si>
+    <t>P81X4R7K</t>
+  </si>
+  <si>
+    <t>Mahmoud mokhtar mahmoud</t>
+  </si>
+  <si>
+    <t>T92M6J4F</t>
+  </si>
+  <si>
+    <t>Tadaima.Egy</t>
+  </si>
+  <si>
+    <t>ريناد مؤمن مختار</t>
+  </si>
+  <si>
+    <t>Q34H8C1L</t>
+  </si>
+  <si>
+    <t>محمود محمد مصلحي</t>
+  </si>
+  <si>
+    <t>X46H7M8B</t>
+  </si>
+  <si>
+    <t>عمر احمد محمد</t>
+  </si>
+  <si>
+    <t>N98T5T1Q</t>
+  </si>
+  <si>
+    <t>Mohamed waleed mohamed</t>
+  </si>
+  <si>
+    <t>K08T5T1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نصر حماده نصر عبدالحميد  </t>
+  </si>
+  <si>
+    <t>K79T5T1Q</t>
+  </si>
+  <si>
+    <t>فيرنا سمير</t>
+  </si>
+  <si>
+    <t>K79T5R2Q</t>
+  </si>
+  <si>
+    <t>اسلام علاء عبدالعظيم</t>
+  </si>
+  <si>
+    <t>K39G5G1Q</t>
+  </si>
+  <si>
+    <t>يوسف ابراهيم عبدالعزيز</t>
+  </si>
+  <si>
+    <t>IsG4SJQh</t>
+  </si>
+  <si>
+    <t>بيتر نادي خلف</t>
+  </si>
+  <si>
+    <t>C39G5G1U</t>
+  </si>
+  <si>
+    <t>منار علاء</t>
+  </si>
+  <si>
+    <t>A3D7F6K8</t>
+  </si>
+  <si>
+    <t>رحمه هشام محمد</t>
+  </si>
+  <si>
+    <t>H9J2M4X7</t>
+  </si>
+  <si>
+    <t>allStudentsTadaima2025</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -72,6 +671,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,47 +1003,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Grade1</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Code</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Grade2</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Grade3</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Grade4</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Grade5</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Grade6</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <v>علاء محمد صفوت حسان</v>
-      </c>
-      <c r="C2" t="str">
-        <v>X12A9B7C</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -454,15 +1064,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="str">
-        <v>يوسف رضا حسن</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Q91L7P6M</v>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -480,15 +1090,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" t="str">
-        <v>سامي هاني سامي</v>
-      </c>
-      <c r="C4" t="str">
-        <v>R32J4K8N</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -506,15 +1116,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" t="str">
-        <v>إيهاب راضي موسي</v>
-      </c>
-      <c r="C5" t="str">
-        <v>A74P3T1L</v>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -532,15 +1142,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" t="str">
-        <v>بيشوي ناصر رمسيس</v>
-      </c>
-      <c r="C6" t="str">
-        <v>F82K5D4H</v>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -558,15 +1168,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" t="str">
-        <v>خيري عاطف خيري</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Z63N1X9Y</v>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -584,15 +1194,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" t="str">
-        <v>محمد ابراهيم سلطان</v>
-      </c>
-      <c r="C8" t="str">
-        <v>G56T9A7B</v>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -610,15 +1220,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9" t="str">
-        <v>ساره محمد جمعه</v>
-      </c>
-      <c r="C9" t="str">
-        <v>B41C8L3D</v>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -636,15 +1246,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
-      <c r="B10" t="str">
-        <v>احمد عيد سيد</v>
-      </c>
-      <c r="C10" t="str">
-        <v>T73P9M6K</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -662,15 +1272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11" t="str">
-        <v>خالد رجب عثمان</v>
-      </c>
-      <c r="C11" t="str">
-        <v>V92R4N5J</v>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -688,15 +1298,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" t="str">
-        <v>محمد ايمن على</v>
-      </c>
-      <c r="C12" t="str">
-        <v>K81Q6H3L</v>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -714,15 +1324,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13" t="str">
-        <v>حبيبه علي صادق</v>
-      </c>
-      <c r="C13" t="str">
-        <v>M47N2P8Q</v>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,15 +1350,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="str">
-        <v>نجوى مصطفى احمد محمود</v>
-      </c>
-      <c r="C14" t="str">
-        <v>S25L8R1F</v>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -766,15 +1376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15" t="str">
-        <v>عبدالله محمود فتحى</v>
-      </c>
-      <c r="C15" t="str">
-        <v>H19D7K3C</v>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -792,15 +1402,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16" t="str">
-        <v>محمد مصطفى عبدالعاطى محمد</v>
-      </c>
-      <c r="C16" t="str">
-        <v>L34T8X6Q</v>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -818,15 +1428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17" t="str">
-        <v>محمد مختار محمد</v>
-      </c>
-      <c r="C17" t="str">
-        <v>P98F1J7R</v>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -844,15 +1454,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18" t="str">
-        <v>هشام ايمن عطيه</v>
-      </c>
-      <c r="C18" t="str">
-        <v>C74M9B2P</v>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -870,15 +1480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19" t="str">
-        <v>محمد عمرو محمد</v>
-      </c>
-      <c r="C19" t="str">
-        <v>N82Q5L6D</v>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -896,15 +1506,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20" t="str">
-        <v>محمد أيمن محمد عبدالمنعم محمد</v>
-      </c>
-      <c r="C20" t="str">
-        <v>D23H4P7T</v>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -922,15 +1532,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21" t="str">
-        <v>احمد رافت عطيه</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Q16K8N3M</v>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -948,15 +1558,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="B22" t="str">
-        <v>عمر احمد صلاح أحمد</v>
-      </c>
-      <c r="C22" t="str">
-        <v>X91R7B5A</v>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -974,15 +1584,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23" t="str">
-        <v>يوسف ابراهيم</v>
-      </c>
-      <c r="C23" t="str">
-        <v>G73L2T6N</v>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1000,15 +1610,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" t="str">
-        <v>البراء أشرف شوقي</v>
-      </c>
-      <c r="C24" t="str">
-        <v>F84P9M1D</v>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1026,15 +1636,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
-      <c r="B25" t="str">
-        <v>صهيب هشام عبد المنعم عبدالسلام</v>
-      </c>
-      <c r="C25" t="str">
-        <v>R67T3H8P</v>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1052,15 +1662,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
-      <c r="B26" t="str">
-        <v>حبيبه حسام الجندي</v>
-      </c>
-      <c r="C26" t="str">
-        <v>J25L9D4Q</v>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1078,15 +1688,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27" t="str">
-        <v>فارس احمد محمد</v>
-      </c>
-      <c r="C27" t="str">
-        <v>K41N8P6L</v>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1104,15 +1714,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28" t="str">
-        <v>كريم علي رجب</v>
-      </c>
-      <c r="C28" t="str">
-        <v>H38B7R2T</v>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1130,15 +1740,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
-      <c r="B29" t="str">
-        <v>محروص داود محروص</v>
-      </c>
-      <c r="C29" t="str">
-        <v>M65K9C1N</v>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1156,15 +1766,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
-      <c r="B30" t="str">
-        <v>روان سلامه فرج</v>
-      </c>
-      <c r="C30" t="str">
-        <v>N23L7T5P</v>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1182,15 +1792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
-      <c r="B31" t="str">
-        <v>سيف ياسر سمير</v>
-      </c>
-      <c r="C31" t="str">
-        <v>V49F8P3L</v>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1208,15 +1818,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
-      <c r="B32" t="str">
-        <v>رباب احمد محمد</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Z81Q6R7D</v>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1234,15 +1844,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
-      <c r="B33" t="str">
-        <v>رحاب صابر عبدالرحمن</v>
-      </c>
-      <c r="C33" t="str">
-        <v>P75M2T9K</v>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1260,15 +1870,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
-      <c r="B34" t="str">
-        <v>محمود محمد عبدالله</v>
-      </c>
-      <c r="C34" t="str">
-        <v>C32L8B7F</v>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1286,15 +1896,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
-      <c r="B35" t="str">
-        <v>احمد محسن محمود</v>
-      </c>
-      <c r="C35" t="str">
-        <v>X47R9M2T</v>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1312,15 +1922,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
-      <c r="B36" t="str">
-        <v>امنيه سند مغيربى</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Q92H5K6B</v>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1338,15 +1948,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
-      <c r="B37" t="str">
-        <v>حسناء حاتم عبد الحليم مصطفى</v>
-      </c>
-      <c r="C37" t="str">
-        <v>L16F8N3C</v>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1364,15 +1974,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
-      <c r="B38" t="str">
-        <v>احمد عصمت قاسم</v>
-      </c>
-      <c r="C38" t="str">
-        <v>T81M9P4K</v>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1390,15 +2000,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
-      <c r="B39" t="str">
-        <v>عبد الرحمن ياسر رفعت</v>
-      </c>
-      <c r="C39" t="str">
-        <v>D27L6B5P</v>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1416,15 +2026,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
-      <c r="B40" t="str">
-        <v>شهد صلاح إبراهيم</v>
-      </c>
-      <c r="C40" t="str">
-        <v>P43K7R1L</v>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1442,15 +2052,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
-      <c r="B41" t="str">
-        <v>أدهم محمود سعد</v>
-      </c>
-      <c r="C41" t="str">
-        <v>N98T5D2Q</v>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1468,15 +2078,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
-      <c r="B42" t="str">
-        <v>محمود مختار محمود</v>
-      </c>
-      <c r="C42" t="str">
-        <v>K24H8P7M</v>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1494,15 +2104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
-      <c r="B43" t="str">
-        <v>خالد تامر عبد الفتاح ذكي</v>
-      </c>
-      <c r="C43" t="str">
-        <v>M61B9L4Q</v>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1520,15 +2130,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
-      <c r="B44" t="str">
-        <v>محمد تامر السيد</v>
-      </c>
-      <c r="C44" t="str">
-        <v>F73L8D1T</v>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1546,15 +2156,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
-      <c r="B45" t="str">
-        <v>زياد وائل حسن راشد</v>
-      </c>
-      <c r="C45" t="str">
-        <v>R28N5K7B</v>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1572,15 +2182,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" t="str">
-        <v>هاجر رمضان شوقي</v>
-      </c>
-      <c r="C46" t="str">
-        <v>G94P2M6L</v>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1598,15 +2208,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
-      <c r="B47" t="str">
-        <v>مصطفى محمد رمضان</v>
-      </c>
-      <c r="C47" t="str">
-        <v>X52T7H9N</v>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1624,15 +2234,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
-      <c r="B48" t="str">
-        <v>عبد الرحمن احمد الشحات</v>
-      </c>
-      <c r="C48" t="str">
-        <v>Q61K9M3F</v>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1650,15 +2260,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
-      <c r="B49" t="str">
-        <v>أحمد عنايت عبدالحميد</v>
-      </c>
-      <c r="C49" t="str">
-        <v>L85P4R2C</v>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1676,15 +2286,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
-      <c r="B50" t="str">
-        <v>لمياء علاء الدين</v>
-      </c>
-      <c r="C50" t="str">
-        <v>T92M6B7P</v>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1702,15 +2312,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
-      <c r="B51" t="str">
-        <v>يوسف عمر سعد</v>
-      </c>
-      <c r="C51" t="str">
-        <v>H73N8K4D</v>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1728,15 +2338,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
-      <c r="B52" t="str">
-        <v>حازم نادى الازهرى</v>
-      </c>
-      <c r="C52" t="str">
-        <v>J54P7R1L</v>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1754,15 +2364,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
-      <c r="B53" t="str">
-        <v>وعد عمرو محمد طه</v>
-      </c>
-      <c r="C53" t="str">
-        <v>C86M9T3F</v>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1780,15 +2390,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
-      <c r="B54" t="str">
-        <v>محمد هاني علي</v>
-      </c>
-      <c r="C54" t="str">
-        <v>P39K2B8N</v>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1806,15 +2416,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
-      <c r="B55" t="str">
-        <v>محمد احمد تحسين</v>
-      </c>
-      <c r="C55" t="str">
-        <v>N61R4L7D</v>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1832,15 +2442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
-      <c r="B56" t="str">
-        <v>سهيله محمود ابو النضر</v>
-      </c>
-      <c r="C56" t="str">
-        <v>V82T5P3K</v>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1858,15 +2468,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
-      <c r="B57" t="str">
-        <v>أحمد الصافي أحمد</v>
-      </c>
-      <c r="C57" t="str">
-        <v>L24F8M7N</v>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1884,15 +2494,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
-      <c r="B58" t="str">
-        <v>ياسمين سيد علي</v>
-      </c>
-      <c r="C58" t="str">
-        <v>X49B7K2T</v>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1910,15 +2520,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0</v>
       </c>
-      <c r="B59" t="str">
-        <v>احمد هانى شوقى</v>
-      </c>
-      <c r="C59" t="str">
-        <v>Q31R8P6L</v>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1936,15 +2546,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
-      <c r="B60" t="str">
-        <v>جنى وليد زيدان</v>
-      </c>
-      <c r="C60" t="str">
-        <v>G74N9H2F</v>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1962,15 +2572,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
-      <c r="B61" t="str">
-        <v>آية عصام ابوزيد</v>
-      </c>
-      <c r="C61" t="str">
-        <v>D58K7L3P</v>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1988,15 +2598,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
-      <c r="B62" t="str">
-        <v>زينب أحمد عبدالله</v>
-      </c>
-      <c r="C62" t="str">
-        <v>T63P9B4L</v>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2014,15 +2624,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
-      <c r="B63" t="str">
-        <v>أحمد عصام السيد</v>
-      </c>
-      <c r="C63" t="str">
-        <v>P17M6R5N</v>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2040,15 +2650,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
-      <c r="B64" t="str">
-        <v>علاء الدين اسعد شرابي</v>
-      </c>
-      <c r="C64" t="str">
-        <v>F42L8K9T</v>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2066,15 +2676,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
-      <c r="B65" t="str">
-        <v>محمد سمير حمدي</v>
-      </c>
-      <c r="C65" t="str">
-        <v>H98N7P1L</v>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2092,15 +2702,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
-      <c r="B66" t="str">
-        <v>حسام انور عطيه</v>
-      </c>
-      <c r="C66" t="str">
-        <v>R61M4T2Q</v>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2118,15 +2728,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
-      <c r="B67" t="str">
-        <v>شهد محمد الزنقلى</v>
-      </c>
-      <c r="C67" t="str">
-        <v>L83X1N7P</v>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2144,15 +2754,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0</v>
       </c>
-      <c r="B68" t="str">
-        <v>يوسف رضا حسن</v>
-      </c>
-      <c r="C68" t="str">
-        <v>Q45K2R9T</v>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2170,15 +2780,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
-      <c r="B69" t="str">
-        <v>محمد على خضراوى</v>
-      </c>
-      <c r="C69" t="str">
-        <v>M92T6H3B</v>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2196,15 +2806,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
-      <c r="B70" t="str">
-        <v>مانويل وصفى جورجى</v>
-      </c>
-      <c r="C70" t="str">
-        <v>F74P8C5L</v>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2222,15 +2832,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0</v>
       </c>
-      <c r="B71" t="str">
-        <v>حسن ممدوح حسن</v>
-      </c>
-      <c r="C71" t="str">
-        <v>D61L7J2N</v>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2248,15 +2858,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
-      <c r="B72" t="str">
-        <v>شهد معتصم قرني</v>
-      </c>
-      <c r="C72" t="str">
-        <v>X94B6T8P</v>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2274,15 +2884,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
-      <c r="B73" t="str">
-        <v>انس هاني السبكي</v>
-      </c>
-      <c r="C73" t="str">
-        <v>K35H9M2F</v>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
+        <v>150</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2300,15 +2910,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
-      <c r="B74" t="str">
-        <v>حسن علي حسن</v>
-      </c>
-      <c r="C74" t="str">
-        <v>N72P4Q8R</v>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2326,15 +2936,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0</v>
       </c>
-      <c r="B75" t="str">
-        <v>Menna tallah mohamed mohamed</v>
-      </c>
-      <c r="C75" t="str">
-        <v>T83F1L7K</v>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>154</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2352,15 +2962,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0</v>
       </c>
-      <c r="B76" t="str">
-        <v>محمود حسن محمد</v>
-      </c>
-      <c r="C76" t="str">
-        <v>R96B5N3M</v>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>156</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2378,15 +2988,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
-      <c r="B77" t="str">
-        <v>حسن صالح حسن</v>
-      </c>
-      <c r="C77" t="str">
-        <v>P41X7C9L</v>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2404,15 +3014,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0</v>
       </c>
-      <c r="B78" t="str">
-        <v>مروه سلامه عاشور</v>
-      </c>
-      <c r="C78" t="str">
-        <v>Z28K6T3P</v>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2430,15 +3040,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0</v>
       </c>
-      <c r="B79" t="str">
-        <v>شهد احمد عبدالوهاب</v>
-      </c>
-      <c r="C79" t="str">
-        <v>L84X1N7P</v>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2456,15 +3066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0</v>
       </c>
-      <c r="B80" t="str">
-        <v>شهد حمدي محمد</v>
-      </c>
-      <c r="C80" t="str">
-        <v>Q46K2R9T</v>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2482,15 +3092,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0</v>
       </c>
-      <c r="B81" t="str">
-        <v>أحمد محمد عبد المحسن</v>
-      </c>
-      <c r="C81" t="str">
-        <v>M92T8H3B</v>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2508,15 +3118,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0</v>
       </c>
-      <c r="B82" t="str">
-        <v>طارق محمد عبد الحكم</v>
-      </c>
-      <c r="C82" t="str">
-        <v>F74P9C5L</v>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s">
+        <v>168</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2534,15 +3144,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
-      <c r="B83" t="str">
-        <v>هويدا معوض ابراهيم</v>
-      </c>
-      <c r="C83" t="str">
-        <v>D61R7J2N</v>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s">
+        <v>170</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2560,15 +3170,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
-      <c r="B84" t="str">
-        <v>نورهان عاطف مصطفي</v>
-      </c>
-      <c r="C84" t="str">
-        <v>D61R8J2N</v>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
+        <v>172</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2586,15 +3196,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0</v>
       </c>
-      <c r="B85" t="str">
-        <v>مانويل وصفى</v>
-      </c>
-      <c r="C85" t="str">
-        <v>B57L3N9Q</v>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s">
+        <v>174</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2612,15 +3222,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0</v>
       </c>
-      <c r="B86" t="str">
-        <v>احمد عصمت قاسم</v>
-      </c>
-      <c r="C86" t="str">
-        <v>B57Y4N9Q</v>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2638,15 +3248,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0</v>
       </c>
-      <c r="B87" t="str">
-        <v>شهد احمد عبدالوهاب</v>
-      </c>
-      <c r="C87" t="str">
-        <v>P81X4R7K</v>
+      <c r="B87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2664,15 +3274,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0</v>
       </c>
-      <c r="B88" t="str">
-        <v>Mahmoud mokhtar mahmoud</v>
-      </c>
-      <c r="C88" t="str">
-        <v>T92M6J4F</v>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2690,15 +3300,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>12</v>
-      </c>
-      <c r="B89" t="str">
-        <v>Tadaima.Egy</v>
-      </c>
-      <c r="C89" t="str">
-        <v>allStudentsTadaima</v>
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>202</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2716,15 +3326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0</v>
       </c>
-      <c r="B90" t="str">
-        <v>ريناد مؤمن مختار</v>
-      </c>
-      <c r="C90" t="str">
-        <v>Q34H8C1L</v>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2742,15 +3352,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
-      <c r="B91" t="str">
-        <v>محمود محمد مصلحي</v>
-      </c>
-      <c r="C91" t="str">
-        <v>X46H7M8B</v>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" t="s">
+        <v>183</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2768,15 +3378,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0</v>
       </c>
-      <c r="B92" t="str">
-        <v>عمر احمد محمد</v>
-      </c>
-      <c r="C92" t="str">
-        <v>N98T5T1Q</v>
+      <c r="B92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" t="s">
+        <v>185</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2794,15 +3404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
-      <c r="B93" t="str">
-        <v>Mohamed waleed mohamed</v>
-      </c>
-      <c r="C93" t="str">
-        <v>K08T5T1Q</v>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>187</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2820,15 +3430,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
-      <c r="B94" t="str">
-        <v xml:space="preserve">نصر حماده نصر عبدالحميد  </v>
-      </c>
-      <c r="C94" t="str">
-        <v>K79T5T1Q</v>
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" t="s">
+        <v>189</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2846,15 +3456,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
-      <c r="B95" t="str">
-        <v>فيرنا سمير</v>
-      </c>
-      <c r="C95" t="str">
-        <v>K79T5R2Q</v>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>191</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2872,15 +3482,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0</v>
       </c>
-      <c r="B96" t="str">
-        <v>اسلام علاء عبدالعظيم</v>
-      </c>
-      <c r="C96" t="str">
-        <v>K39G5G1Q</v>
+      <c r="B96" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" t="s">
+        <v>193</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2898,15 +3508,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0</v>
       </c>
-      <c r="B97" t="str">
-        <v>يوسف ابراهيم عبدالعزيز</v>
-      </c>
-      <c r="C97" t="str">
-        <v>IsG4SJQh</v>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>195</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2924,15 +3534,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0</v>
       </c>
-      <c r="B98" t="str">
-        <v>بيتر نادي خلف</v>
-      </c>
-      <c r="C98" t="str">
-        <v>C39G5G1U</v>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" t="s">
+        <v>197</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2950,15 +3560,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0</v>
       </c>
-      <c r="B99" t="str">
-        <v>منار علاء</v>
-      </c>
-      <c r="C99" t="str">
-        <v>A3D7F6K8</v>
+      <c r="B99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" t="s">
+        <v>199</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2976,15 +3586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0</v>
       </c>
-      <c r="B100" t="str">
-        <v>رحمه هشام محمد</v>
-      </c>
-      <c r="C100" t="str">
-        <v>H9J2M4X7</v>
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" t="s">
+        <v>201</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3003,8 +3613,9 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H100"/>
+    <ignoredError sqref="A1:H38 A40:H88 A39:B39 D39:H39 A90:H100 B89 D89:H89" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>